--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_427__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_427__Reeval_Halton_Modell_1.2.xlsx
@@ -5999,7 +5999,7 @@
                   <c:v>8.431634902954102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.05183410644531</c:v>
+                  <c:v>99.05184173583984</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>99.14427947998047</c:v>
@@ -6011,13 +6011,13 @@
                   <c:v>8.431634902954102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.2878360748291</c:v>
+                  <c:v>31.2878303527832</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>99.27908325195312</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>99.58969116210938</c:v>
+                  <c:v>99.58971405029297</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>8.431634902954102</c:v>
@@ -6041,7 +6041,7 @@
                   <c:v>8.431634902954102</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44.40875244140625</c:v>
+                  <c:v>44.40874862670898</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>8.431634902954102</c:v>
@@ -6053,7 +6053,7 @@
                   <c:v>8.431634902954102</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>99.55876922607422</c:v>
+                  <c:v>99.55876159667969</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>8.431634902954102</c:v>
@@ -6062,10 +6062,10 @@
                   <c:v>23.15448188781738</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>46.31366729736328</c:v>
+                  <c:v>46.31365585327148</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.80504417419434</c:v>
+                  <c:v>20.80505752563477</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>8.431634902954102</c:v>
@@ -6098,7 +6098,7 @@
                   <c:v>60.77542114257812</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>40.99090957641602</c:v>
+                  <c:v>40.99088287353516</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>95.90496063232422</c:v>
@@ -6107,7 +6107,7 @@
                   <c:v>8.431634902954102</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>70.21876525878906</c:v>
+                  <c:v>70.21879577636719</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>99.53097534179688</c:v>
@@ -6116,7 +6116,7 @@
                   <c:v>96.58906555175781</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23.45616340637207</c:v>
+                  <c:v>23.4561653137207</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>8.431634902954102</c:v>
@@ -6125,16 +6125,16 @@
                   <c:v>99.61775207519531</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>97.79930114746094</c:v>
+                  <c:v>97.79931640625</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>11.38790512084961</c:v>
+                  <c:v>11.38790225982666</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>89.38993072509766</c:v>
+                  <c:v>89.38994598388672</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>99.1912841796875</c:v>
+                  <c:v>99.19126129150391</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>8.431634902954102</c:v>
@@ -6149,7 +6149,7 @@
                   <c:v>8.431634902954102</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>99.46435546875</c:v>
+                  <c:v>99.46436309814453</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>72.69949340820312</c:v>
@@ -6161,13 +6161,13 @@
                   <c:v>8.431634902954102</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>99.07840728759766</c:v>
+                  <c:v>99.07838439941406</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>8.431634902954102</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>77.03172302246094</c:v>
+                  <c:v>77.03170776367188</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>8.431634902954102</c:v>
@@ -6176,7 +6176,7 @@
                   <c:v>88.67479705810547</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>98.63748168945312</c:v>
+                  <c:v>98.63747406005859</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>8.431634902954102</c:v>
@@ -6185,7 +6185,7 @@
                   <c:v>8.431634902954102</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>99.26169586181641</c:v>
+                  <c:v>99.26168060302734</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>96.26670074462891</c:v>
@@ -6203,10 +6203,10 @@
                   <c:v>99.20867156982422</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>99.23027038574219</c:v>
+                  <c:v>99.23028564453125</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>98.19235229492188</c:v>
+                  <c:v>98.19232940673828</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>8.431634902954102</c:v>
@@ -6218,7 +6218,7 @@
                   <c:v>94.23432922363281</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>98.93164825439453</c:v>
+                  <c:v>98.93166351318359</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>77.35219573974609</c:v>
@@ -6230,16 +6230,16 @@
                   <c:v>99.31591796875</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>99.57071685791016</c:v>
+                  <c:v>99.57070159912109</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>8.431634902954102</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>98.53655242919922</c:v>
+                  <c:v>98.53653717041016</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>39.86005401611328</c:v>
+                  <c:v>39.86006546020508</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>99.33329010009766</c:v>
@@ -7107,7 +7107,7 @@
         <v>96.7841</v>
       </c>
       <c r="F6">
-        <v>99.05183410644531</v>
+        <v>99.05184173583984</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.2878360748291</v>
+        <v>31.2878303527832</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>93.5943</v>
       </c>
       <c r="F12">
-        <v>99.58969116210938</v>
+        <v>99.58971405029297</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>44.40875244140625</v>
+        <v>44.40874862670898</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>94.6263</v>
       </c>
       <c r="F24">
-        <v>99.55876922607422</v>
+        <v>99.55876159667969</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>46.31366729736328</v>
+        <v>46.31365585327148</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>55.7988</v>
       </c>
       <c r="F28">
-        <v>20.80504417419434</v>
+        <v>20.80505752563477</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>40.99090957641602</v>
+        <v>40.99088287353516</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>41.033</v>
       </c>
       <c r="F42">
-        <v>70.21876525878906</v>
+        <v>70.21879577636719</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>23.45616340637207</v>
+        <v>23.4561653137207</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>95.2355</v>
       </c>
       <c r="F48">
-        <v>97.79930114746094</v>
+        <v>97.79931640625</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>11.38790512084961</v>
+        <v>11.38790225982666</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>60.2136</v>
       </c>
       <c r="F50">
-        <v>89.38993072509766</v>
+        <v>89.38994598388672</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>97.8107</v>
       </c>
       <c r="F51">
-        <v>99.1912841796875</v>
+        <v>99.19126129150391</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>92.9953</v>
       </c>
       <c r="F56">
-        <v>99.46435546875</v>
+        <v>99.46436309814453</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>95.5249</v>
       </c>
       <c r="F60">
-        <v>99.07840728759766</v>
+        <v>99.07838439941406</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>95.947</v>
       </c>
       <c r="F62">
-        <v>77.03172302246094</v>
+        <v>77.03170776367188</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>91.5611</v>
       </c>
       <c r="F65">
-        <v>98.63748168945312</v>
+        <v>98.63747406005859</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>94.0749</v>
       </c>
       <c r="F68">
-        <v>99.26169586181641</v>
+        <v>99.26168060302734</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>95.4374</v>
       </c>
       <c r="F74">
-        <v>99.23027038574219</v>
+        <v>99.23028564453125</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>98.0594</v>
       </c>
       <c r="F75">
-        <v>98.19235229492188</v>
+        <v>98.19232940673828</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>93.7921</v>
       </c>
       <c r="F79">
-        <v>98.93164825439453</v>
+        <v>98.93166351318359</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>97.5809</v>
       </c>
       <c r="F83">
-        <v>99.57071685791016</v>
+        <v>99.57070159912109</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5714</v>
       </c>
       <c r="F85">
-        <v>98.53655242919922</v>
+        <v>98.53653717041016</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>39.86005401611328</v>
+        <v>39.86006546020508</v>
       </c>
     </row>
     <row r="87" spans="1:6">
